--- a/Keyword Creation/N11 - BANK TRANSFERS.xlsx
+++ b/Keyword Creation/N11 - BANK TRANSFERS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="84">
   <si>
     <t xml:space="preserve">NOTIFICATION TYPE</t>
   </si>
@@ -196,6 +196,9 @@
     <t xml:space="preserve">TRANSFERIR RETENCIÓ</t>
   </si>
   <si>
+    <t xml:space="preserve">MEDIANTE TRANSFERENCIA</t>
+  </si>
+  <si>
     <t xml:space="preserve">N11 - AMOUNT</t>
   </si>
   <si>
@@ -251,9 +254,6 @@
   </si>
   <si>
     <t xml:space="preserve">ENTREGA POR TRANSF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEDIANTE TRANSFERENCIA</t>
   </si>
   <si>
     <t xml:space="preserve">MTO DEVOLUCION</t>
@@ -411,7 +411,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -464,6 +464,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -501,17 +509,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F128"/>
+  <dimension ref="A1:Z130"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B97" activeCellId="0" sqref="B97"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A103" activeCellId="0" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.5867346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.1836734693878"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1998,292 +2008,364 @@
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="13" t="s">
+    <row r="101" customFormat="false" ht="14.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A101" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B101" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B101" s="13" t="s">
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="14"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="14"/>
+      <c r="J101" s="14"/>
+      <c r="K101" s="14"/>
+      <c r="L101" s="14"/>
+      <c r="M101" s="14"/>
+      <c r="N101" s="14"/>
+      <c r="O101" s="14"/>
+      <c r="P101" s="14"/>
+      <c r="Q101" s="14"/>
+      <c r="R101" s="14"/>
+      <c r="S101" s="14"/>
+      <c r="T101" s="14"/>
+      <c r="U101" s="14"/>
+      <c r="V101" s="14"/>
+      <c r="W101" s="14"/>
+      <c r="X101" s="14"/>
+      <c r="Y101" s="14"/>
+      <c r="Z101" s="14"/>
+    </row>
+    <row r="102" customFormat="false" ht="14.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c r="G102" s="14"/>
+      <c r="H102" s="14"/>
+      <c r="I102" s="14"/>
+      <c r="J102" s="14"/>
+      <c r="K102" s="14"/>
+      <c r="L102" s="14"/>
+      <c r="M102" s="14"/>
+      <c r="N102" s="14"/>
+      <c r="O102" s="14"/>
+      <c r="P102" s="14"/>
+      <c r="Q102" s="14"/>
+      <c r="R102" s="14"/>
+      <c r="S102" s="14"/>
+      <c r="T102" s="14"/>
+      <c r="U102" s="14"/>
+      <c r="V102" s="14"/>
+      <c r="W102" s="14"/>
+      <c r="X102" s="14"/>
+      <c r="Y102" s="14"/>
+      <c r="Z102" s="14"/>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C101" s="13"/>
-      <c r="D101" s="13"/>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B102" s="13" t="s">
+      <c r="B103" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C102" s="13"/>
-      <c r="D102" s="13"/>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B103" s="13" t="s">
+      <c r="C103" s="15"/>
+      <c r="D103" s="15"/>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B104" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C103" s="13"/>
-      <c r="D103" s="13"/>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B104" s="13" t="s">
+      <c r="C104" s="15"/>
+      <c r="D104" s="15"/>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B105" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C104" s="13"/>
-      <c r="D104" s="13"/>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B105" s="13" t="s">
+      <c r="C105" s="15"/>
+      <c r="D105" s="15"/>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B106" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C105" s="13"/>
-      <c r="D105" s="13"/>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B106" s="13" t="s">
+      <c r="C106" s="15"/>
+      <c r="D106" s="15"/>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B107" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C106" s="13"/>
-      <c r="D106" s="13"/>
-    </row>
-    <row r="107" customFormat="false" ht="12.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B107" s="3" t="s">
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B108" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="15"/>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B108" s="3" t="s">
+      <c r="C108" s="15"/>
+      <c r="D108" s="15"/>
+    </row>
+    <row r="109" customFormat="false" ht="12.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A109" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B109" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="15"/>
-      <c r="F108" s="15"/>
-    </row>
-    <row r="109" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
+      <c r="E109" s="16"/>
+      <c r="F109" s="17"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="16"/>
-      <c r="B110" s="16"/>
-      <c r="C110" s="16"/>
-      <c r="D110" s="16"/>
-      <c r="F110" s="15"/>
-    </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="s">
+      <c r="A110" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="17"/>
+    </row>
+    <row r="111" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A111" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B111" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="18"/>
+      <c r="B112" s="18"/>
+      <c r="C112" s="18"/>
+      <c r="D112" s="18"/>
+      <c r="F112" s="17"/>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C111" s="13"/>
-      <c r="D111" s="13"/>
-      <c r="F111" s="14"/>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B112" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D112" s="3" t="s">
+      <c r="C113" s="15"/>
+      <c r="D113" s="15"/>
+      <c r="F113" s="16"/>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B114" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="F112" s="17"/>
-    </row>
-    <row r="113" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B113" s="3" t="s">
+      <c r="C114" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C113" s="13"/>
-      <c r="D113" s="13"/>
-      <c r="F113" s="17"/>
-    </row>
-    <row r="114" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B114" s="3" t="s">
+      <c r="F114" s="19"/>
+    </row>
+    <row r="115" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B115" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C114" s="13"/>
-      <c r="D114" s="13"/>
-      <c r="F114" s="17"/>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B115" s="3" t="s">
+      <c r="C115" s="15"/>
+      <c r="D115" s="15"/>
+      <c r="F115" s="19"/>
+    </row>
+    <row r="116" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B116" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C115" s="13"/>
-      <c r="D115" s="13"/>
-      <c r="F115" s="17"/>
-    </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B116" s="3" t="s">
+      <c r="C116" s="15"/>
+      <c r="D116" s="15"/>
+      <c r="F116" s="19"/>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B117" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C116" s="13"/>
-      <c r="D116" s="13"/>
-      <c r="F116" s="17"/>
-    </row>
-    <row r="117" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B117" s="3" t="s">
+      <c r="C117" s="15"/>
+      <c r="D117" s="15"/>
+      <c r="F117" s="19"/>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B118" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C117" s="13"/>
-      <c r="D117" s="13"/>
-      <c r="F117" s="17"/>
-    </row>
-    <row r="118" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B118" s="3" t="s">
+      <c r="C118" s="15"/>
+      <c r="D118" s="15"/>
+      <c r="F118" s="19"/>
+    </row>
+    <row r="119" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B119" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C118" s="13"/>
-      <c r="D118" s="13"/>
-      <c r="F118" s="17"/>
-    </row>
-    <row r="119" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C119" s="13"/>
-      <c r="D119" s="13"/>
-      <c r="F119" s="17"/>
+      <c r="C119" s="15"/>
+      <c r="D119" s="15"/>
+      <c r="F119" s="19"/>
     </row>
     <row r="120" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="13" t="s">
+      <c r="A120" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C120" s="13"/>
-      <c r="D120" s="13"/>
-      <c r="F120" s="17"/>
+      <c r="C120" s="15"/>
+      <c r="D120" s="15"/>
+      <c r="F120" s="19"/>
     </row>
     <row r="121" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="13" t="s">
+      <c r="A121" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B121" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C121" s="15"/>
+      <c r="D121" s="15"/>
+      <c r="F121" s="19"/>
+    </row>
+    <row r="122" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C122" s="15"/>
+      <c r="D122" s="15"/>
+      <c r="F122" s="19"/>
+    </row>
+    <row r="123" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B123" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C121" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D121" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F121" s="17"/>
-    </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B122" s="3" t="s">
+      <c r="C123" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D123" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F123" s="19"/>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B124" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C122" s="13"/>
-      <c r="D122" s="13"/>
-      <c r="F122" s="17"/>
-    </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B123" s="0" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B124" s="0" t="s">
+      <c r="C124" s="15"/>
+      <c r="D124" s="15"/>
+      <c r="F124" s="19"/>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B126" s="0" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B125" s="0" t="s">
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B127" s="0" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B126" s="0" t="s">
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B128" s="0" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B127" s="0" t="s">
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B129" s="0" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B128" s="0" t="s">
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B130" s="0" t="s">
         <v>83</v>
       </c>
     </row>
